--- a/biology/Zoologie/Goéland_siméon/Goéland_siméon.xlsx
+++ b/biology/Zoologie/Goéland_siméon/Goéland_siméon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_sim%C3%A9on</t>
+          <t>Goéland_siméon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larus belcheri
 Le Goéland siméon (Larus belcheri) est une espèce d'oiseaux de mer de la famille des Laridae de la côte occidentale de l'Amérique du Sud. Le nom scientifique de l'espèce commémore l'exploration britannique Sir Edward Belcher (1799-1877).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_sim%C3%A9on</t>
+          <t>Goéland_siméon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un laridé de taille moyenne (48 à 52 cm).
 </t>
